--- a/demo_order.xlsx
+++ b/demo_order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>9</t>
   </si>
@@ -27,9 +27,6 @@
     <t>xiaoming</t>
   </si>
   <si>
-    <t>5E+00</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -39,19 +36,64 @@
     <t>10</t>
   </si>
   <si>
+    <t>upload/2020/7/14/1594720514-用户类图.jpg</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>upload/2020/7/17/1594948841-审核活动图.jpg</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>xiaobai</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>http://xiaobai.com</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>http://jiayou.com</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>xiaoming2</t>
   </si>
   <si>
-    <t>2E+00</t>
-  </si>
-  <si>
-    <t>upload/2020/7/14/1594720514-用户类图.jpg</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>18</t>
   </si>
   <si>
     <t>3</t>
@@ -60,49 +102,25 @@
     <t>3xiaoming</t>
   </si>
   <si>
-    <t>3E+00</t>
-  </si>
-  <si>
-    <t>upload/2020/7/14/1594720977-系统架构.jpg</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>xiaobai</t>
-  </si>
-  <si>
-    <t>6E+00</t>
-  </si>
-  <si>
-    <t>http://xiaobai.com</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>9E+00</t>
-  </si>
-  <si>
-    <t>http://jiayou.com</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>8E+00</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
 </sst>
 </file>
@@ -469,7 +487,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -499,110 +517,248 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s"/>
+      <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s"/>
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s"/>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s"/>
+      <c r="F11" s="1" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s"/>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s"/>
+      <c r="F12" s="1" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s"/>
+      <c r="C13" s="1" t="s"/>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s"/>
+      <c r="F13" s="1" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s"/>
+      <c r="C14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s"/>
+      <c r="F14" s="1" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
